--- a/Assets/Resource_SVN/Table/Skill.xlsx
+++ b/Assets/Resource_SVN/Table/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="12645"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 攻击每个单位的系数可以单独设置</t>
         </r>
       </text>
@@ -40,11 +39,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 1.法术链
 2.单体施法
 3.群体施法</t>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>技能</t>
   </si>
@@ -92,6 +90,21 @@
   </si>
   <si>
     <t>特效类型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
   </si>
   <si>
     <t>Id</t>
@@ -158,7 +171,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -173,7 +186,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,6 +215,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -211,6 +253,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -235,14 +285,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,70 +323,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -325,13 +343,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,85 +421,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,73 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +534,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,26 +585,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,30 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -624,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,10 +654,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,121 +666,121 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,6 +844,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -837,7 +860,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1081,25 +1104,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="7" max="7" width="29.125" customWidth="1"/>
     <col min="8" max="8" width="22.375" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
@@ -1153,72 +1175,110 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1231,7 +1291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1248,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
